--- a/Example_Excel/All_Comments_Submitted_by_Org.xlsx
+++ b/Example_Excel/All_Comments_Submitted_by_Org.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhowarth\Documents\0 - CC 2020\User Research Feb 2021\Example_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhowarth\Documents\GitHub\NICE.Design\Example_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC4CBB7-3397-4537-9B4F-9E38A8E66ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3283F26-C052-4DF5-8040-176682CA730A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" tabRatio="778" xr2:uid="{2E2A9647-AEAB-4577-8546-747126EA3AD4}"/>
   </bookViews>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Comments_Submitted_by_Org!$A$3:$N$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -642,7 +633,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="232.2" customHeight="1" x14ac:dyDescent="0.5"/>
